--- a/figures/ft/stats.xlsx
+++ b/figures/ft/stats.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.668</v>
+        <v>0.672</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.699</v>
+        <v>0.67</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.769293077207874e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.676</v>
+        <v>0.672</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.672</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.673</v>
+        <v>0.63</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.663</v>
+        <v>0.664</v>
       </c>
       <c r="E5" t="n">
         <v>0.005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01918926259863197</v>
+        <v>0.01523745972594797</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.63</v>
+        <v>0.667</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.623</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.769293077207874e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.549</v>
+        <v>0.587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>0.595</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.697</v>
+        <v>0.624</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.705</v>
+        <v>0.598</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
